--- a/Unserved Report.xlsx
+++ b/Unserved Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Undelivered PO Report 2021</t>
   </si>
@@ -53,6 +53,9 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Status Remarks</t>
+  </si>
+  <si>
     <t>Supplier</t>
   </si>
   <si>
@@ -68,64 +71,38 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>EIC21-1541</t>
-  </si>
-  <si>
-    <t>EIC Consumables</t>
-  </si>
-  <si>
-    <t>EIC</t>
-  </si>
-  <si>
-    <t>2021-01-22</t>
-  </si>
-  <si>
-    <t>PEIC21-1541-2413</t>
-  </si>
-  <si>
-    <t>Kennah Sasamoto</t>
-  </si>
-  <si>
-    <t>can</t>
-  </si>
-  <si>
-    <t>Contact Cleaner; Specialist Fast Drying Brand: WD-40</t>
-  </si>
-  <si>
-    <t>PO Issued</t>
-  </si>
-  <si>
-    <t>Visayan Construction Supply</t>
+    <t>itb21-1000</t>
+  </si>
+  <si>
+    <t>smaple purpose</t>
+  </si>
+  <si>
+    <t>sample end use</t>
+  </si>
+  <si>
+    <t>2021-05-05</t>
+  </si>
+  <si>
+    <t>Pitb21-1000-1007</t>
+  </si>
+  <si>
+    <t>hen</t>
+  </si>
+  <si>
+    <t>pc/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item 1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO Issued - Partial
+</t>
+  </si>
+  <si>
+    <t>A &amp; M Medcare Products Distributors</t>
   </si>
   <si>
     <t>COD</t>
-  </si>
-  <si>
-    <t>OPE19-1000</t>
-  </si>
-  <si>
-    <t>Installation of Piping in Lube oil Recovery (Westfalia Purifier).</t>
-  </si>
-  <si>
-    <t>Lube oil Recovery (Westfalia Purifier)</t>
-  </si>
-  <si>
-    <t>2021-05-03</t>
-  </si>
-  <si>
-    <t>POPE19-1000-2533</t>
-  </si>
-  <si>
-    <t>J. Dagupan/J .Panes</t>
-  </si>
-  <si>
-    <t>cyls.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argon, </t>
-  </si>
-  <si>
-    <t>A-1 Gas Corporation</t>
   </si>
 </sst>
 </file>
@@ -162,13 +139,19 @@
       <name val="Arial Black"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFffecd0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -193,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -206,16 +189,19 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="4" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -517,32 +503,33 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="42.989502" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="77.695313" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="45.845947" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="62.41333" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="32.991943" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="17.567139" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="42.418213" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="9.283447" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -551,12 +538,12 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -602,96 +589,56 @@
       <c r="O4" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="P4" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:17">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="4">
-        <v>2</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="G5" s="5">
+        <v>7</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="J5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="K5" s="6"/>
+      <c r="L5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="7">
-        <v>310</v>
-      </c>
-      <c r="N5" s="7">
-        <v>620</v>
-      </c>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="4" t="s">
+      <c r="M5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="7">
-        <v>300</v>
-      </c>
-      <c r="N6" s="7">
-        <v>600</v>
-      </c>
-      <c r="O6" s="5"/>
+      <c r="N5" s="8">
+        <v>140</v>
+      </c>
+      <c r="O5" s="8">
+        <v>980</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
